--- a/subneteo.xlsx
+++ b/subneteo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BLANCA\Documents\Documentación Bryan\UNITEC\Protocolos de Redes\proyecto\PackPro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Archivos\OneDrive - Universidad Tecnologica Centroamericana\UNITEC\Cuarto Año\Segundo Periodo\Protocolos de Redes\Proyecto\PackPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F32C74-B43B-44EB-B71D-77E035B4A9B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{69F32C74-B43B-44EB-B71D-77E035B4A9B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{CB9CDE02-E96C-41BF-9494-1792335D84D6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{08310167-B4B9-42AB-B479-4FAF45D00D5E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{08310167-B4B9-42AB-B479-4FAF45D00D5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -302,24 +300,6 @@
     <t>Fa0/0</t>
   </si>
   <si>
-    <t>Fa1/1</t>
-  </si>
-  <si>
-    <t>Fa1/2</t>
-  </si>
-  <si>
-    <t>Fa0/0.10</t>
-  </si>
-  <si>
-    <t>Fa0/0.20</t>
-  </si>
-  <si>
-    <t>Fa0/0.30</t>
-  </si>
-  <si>
-    <t>Fa0/0.99</t>
-  </si>
-  <si>
     <t>172.16.0.1/27</t>
   </si>
   <si>
@@ -564,6 +544,24 @@
   </si>
   <si>
     <t>TABLA DE ASIGNACION DE DIRECCIONES</t>
+  </si>
+  <si>
+    <t>Giga0/0.10</t>
+  </si>
+  <si>
+    <t>Giga0/0.20</t>
+  </si>
+  <si>
+    <t>Giga0/0.30</t>
+  </si>
+  <si>
+    <t>Giga0/0.99</t>
+  </si>
+  <si>
+    <t>Giga0/1</t>
+  </si>
+  <si>
+    <t>Giga0/2</t>
   </si>
 </sst>
 </file>
@@ -723,13 +721,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -741,12 +744,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1081,96 +1079,96 @@
   <dimension ref="B4:Q1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.36328125" customWidth="1"/>
-    <col min="12" max="12" width="14.7265625" customWidth="1"/>
-    <col min="13" max="13" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.81640625" customWidth="1"/>
-    <col min="15" max="15" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" customWidth="1"/>
+    <col min="13" max="13" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.77734375" customWidth="1"/>
+    <col min="15" max="15" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-      <c r="J4" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B5" s="6" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
+      <c r="J4" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="N5" s="11" t="s">
+      <c r="M5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="N5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="P5" s="11" t="s">
+      <c r="O5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1180,7 +1178,7 @@
       <c r="D6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -1196,19 +1194,19 @@
         <v>83</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="L6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>99</v>
+      <c r="O6" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>18</v>
@@ -1217,7 +1215,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,7 +1225,7 @@
       <c r="D7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="9" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -1241,19 +1239,19 @@
       </c>
       <c r="J7" s="18"/>
       <c r="K7" s="2" t="s">
-        <v>92</v>
+        <v>172</v>
       </c>
       <c r="L7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N7" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="O7" s="13" t="s">
-        <v>100</v>
+      <c r="O7" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>18</v>
@@ -1262,7 +1260,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1272,7 +1270,7 @@
       <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="9" t="s">
         <v>55</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -1286,19 +1284,19 @@
       </c>
       <c r="J8" s="18"/>
       <c r="K8" s="2" t="s">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="L8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N8" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>101</v>
+      <c r="O8" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>18</v>
@@ -1307,7 +1305,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
@@ -1317,7 +1315,7 @@
       <c r="D9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -1331,19 +1329,19 @@
       </c>
       <c r="J9" s="18"/>
       <c r="K9" s="2" t="s">
-        <v>94</v>
+        <v>174</v>
       </c>
       <c r="L9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N9" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>102</v>
+      <c r="O9" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>18</v>
@@ -1352,17 +1350,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="9" t="s">
         <v>64</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -1376,16 +1374,16 @@
       </c>
       <c r="J10" s="18"/>
       <c r="K10" s="2" t="s">
-        <v>89</v>
+        <v>175</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N10" s="13" t="s">
-        <v>103</v>
+      <c r="N10" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>18</v>
@@ -1397,17 +1395,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="9" t="s">
         <v>65</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -1421,16 +1419,16 @@
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="2" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="13" t="s">
-        <v>104</v>
+      <c r="N11" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>18</v>
@@ -1442,17 +1440,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="9" t="s">
         <v>66</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -1468,19 +1466,19 @@
         <v>84</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="N12" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="O12" s="13" t="s">
-        <v>99</v>
+        <v>89</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>18</v>
@@ -1489,22 +1487,22 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="J13" s="15"/>
       <c r="K13" s="2" t="s">
-        <v>92</v>
+        <v>172</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="N13" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="O13" s="13" t="s">
-        <v>100</v>
+        <v>90</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>18</v>
@@ -1513,30 +1511,30 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="C14" s="5" t="s">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
       <c r="J14" s="15"/>
       <c r="K14" s="2" t="s">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="N14" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="O14" s="13" t="s">
-        <v>101</v>
+        <v>91</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>18</v>
@@ -1545,40 +1543,40 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="C15" s="6" t="s">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="5" t="s">
         <v>51</v>
       </c>
       <c r="J15" s="15"/>
       <c r="K15" s="2" t="s">
-        <v>94</v>
+        <v>174</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="N15" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="O15" s="13" t="s">
-        <v>102</v>
+        <v>92</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>18</v>
@@ -1587,14 +1585,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="C16" s="11" t="s">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C16" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="9" t="s">
         <v>63</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -1608,16 +1606,16 @@
       </c>
       <c r="J16" s="15"/>
       <c r="K16" s="2" t="s">
-        <v>89</v>
+        <v>175</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N16" s="13" t="s">
-        <v>104</v>
+      <c r="N16" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>18</v>
@@ -1629,14 +1627,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C17" s="11" t="s">
+    <row r="17" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C17" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="9" t="s">
         <v>68</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -1650,16 +1648,16 @@
       </c>
       <c r="J17" s="15"/>
       <c r="K17" s="2" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N17" s="13" t="s">
-        <v>123</v>
+      <c r="N17" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>18</v>
@@ -1671,14 +1669,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C18" s="11" t="s">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C18" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="9" t="s">
         <v>69</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -1697,14 +1695,14 @@
         <v>88</v>
       </c>
       <c r="L18" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="M18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N18" s="13" t="s">
-        <v>149</v>
-      </c>
       <c r="O18" s="2" t="s">
         <v>18</v>
       </c>
@@ -1715,14 +1713,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C19" s="11" t="s">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C19" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="9" t="s">
         <v>70</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -1736,17 +1734,17 @@
       </c>
       <c r="J19" s="16"/>
       <c r="K19" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L19" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="M19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N19" s="13" t="s">
-        <v>150</v>
-      </c>
       <c r="O19" s="2" t="s">
         <v>18</v>
       </c>
@@ -1757,14 +1755,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C20" s="11" t="s">
+    <row r="20" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C20" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="9" t="s">
         <v>71</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -1778,16 +1776,16 @@
       </c>
       <c r="J20" s="16"/>
       <c r="K20" s="4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N20" s="13" t="s">
-        <v>151</v>
+      <c r="N20" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>18</v>
@@ -1799,14 +1797,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C21" s="11" t="s">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C21" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="9" t="s">
         <v>73</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -1825,13 +1823,13 @@
         <v>88</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N21" s="13" t="s">
-        <v>152</v>
+      <c r="N21" s="9" t="s">
+        <v>146</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>18</v>
@@ -1843,14 +1841,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C22" s="11" t="s">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C22" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="9" t="s">
         <v>74</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -1864,16 +1862,16 @@
       </c>
       <c r="J22" s="16"/>
       <c r="K22" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N22" s="13" t="s">
-        <v>153</v>
+      <c r="N22" s="9" t="s">
+        <v>147</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>18</v>
@@ -1885,14 +1883,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C23" s="11" t="s">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C23" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="9" t="s">
         <v>75</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -1906,16 +1904,16 @@
       </c>
       <c r="J23" s="16"/>
       <c r="K23" s="4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N23" s="13" t="s">
-        <v>154</v>
+      <c r="N23" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>18</v>
@@ -1927,14 +1925,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C24" s="11" t="s">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C24" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="9" t="s">
         <v>72</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -1953,13 +1951,13 @@
         <v>88</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N24" s="13" t="s">
-        <v>155</v>
+      <c r="N24" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>18</v>
@@ -1971,14 +1969,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C25" s="11" t="s">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C25" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="9" t="s">
         <v>76</v>
       </c>
       <c r="F25" s="2" t="s">
@@ -1992,16 +1990,16 @@
       </c>
       <c r="J25" s="16"/>
       <c r="K25" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N25" s="13" t="s">
-        <v>156</v>
+      <c r="N25" s="9" t="s">
+        <v>150</v>
       </c>
       <c r="O25" s="4" t="s">
         <v>18</v>
@@ -2013,15 +2011,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C26" s="11" t="s">
-        <v>137</v>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C26" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>139</v>
+        <v>111</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>11</v>
@@ -2034,16 +2032,16 @@
       </c>
       <c r="J26" s="16"/>
       <c r="K26" s="4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N26" s="13" t="s">
-        <v>157</v>
+      <c r="N26" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>18</v>
@@ -2055,15 +2053,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C27" s="11" t="s">
-        <v>138</v>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C27" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>140</v>
+        <v>112</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>134</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>11</v>
@@ -2074,307 +2072,307 @@
       <c r="H27" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="7" t="s">
         <v>78</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N27" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="M27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N27" s="13" t="s">
-        <v>116</v>
-      </c>
       <c r="O27" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q27" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="J28" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="J28" s="7" t="s">
         <v>79</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N28" s="13" t="s">
-        <v>130</v>
+      <c r="N28" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q28" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="J29" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="J29" s="7" t="s">
         <v>80</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N29" s="13" t="s">
-        <v>131</v>
+      <c r="N29" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q29" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="J30" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q29" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="J30" s="7" t="s">
         <v>81</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N30" s="13" t="s">
-        <v>132</v>
+      <c r="N30" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q30" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="J31" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="J31" s="7" t="s">
         <v>82</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N31" s="13" t="s">
-        <v>133</v>
+      <c r="N31" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q31" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="J32" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q31" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="J32" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>88</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N32" s="13" t="s">
-        <v>167</v>
+      <c r="N32" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q32" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17" x14ac:dyDescent="0.35">
-      <c r="J33" s="11" t="s">
-        <v>126</v>
+        <v>89</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J33" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>88</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N33" s="13" t="s">
-        <v>168</v>
+      <c r="N33" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="O33" s="4" t="s">
         <v>18</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q33" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17" x14ac:dyDescent="0.35">
-      <c r="J34" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q33" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J34" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>88</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N34" s="13" t="s">
-        <v>169</v>
+      <c r="N34" s="9" t="s">
+        <v>163</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q34" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="10:17" x14ac:dyDescent="0.35">
-      <c r="J35" s="11" t="s">
-        <v>134</v>
+        <v>91</v>
+      </c>
+      <c r="Q34" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J35" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>88</v>
       </c>
       <c r="L35" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N35" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="M35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N35" s="13" t="s">
-        <v>170</v>
-      </c>
       <c r="O35" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q35" s="13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="36" spans="10:17" x14ac:dyDescent="0.35">
-      <c r="J36" s="11" t="s">
-        <v>135</v>
+        <v>155</v>
+      </c>
+      <c r="Q35" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J36" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>88</v>
       </c>
       <c r="L36" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N36" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="M36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N36" s="13" t="s">
-        <v>171</v>
-      </c>
       <c r="O36" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q36" s="13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17" x14ac:dyDescent="0.35">
-      <c r="J37" s="11" t="s">
-        <v>136</v>
+        <v>156</v>
+      </c>
+      <c r="Q36" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J37" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>88</v>
       </c>
       <c r="L37" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N37" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="M37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N37" s="13" t="s">
-        <v>172</v>
-      </c>
       <c r="O37" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q37" s="13" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="1048575" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J1048575" s="7"/>
-    </row>
-    <row r="1048576" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="K1048576" s="12"/>
+        <v>157</v>
+      </c>
+      <c r="Q37" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="1048575" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J1048575" s="6"/>
+    </row>
+    <row r="1048576" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="K1048576" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="J6:J11"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="J4:Q4"/>
     <mergeCell ref="J12:J17"/>
     <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="J6:J11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/subneteo.xlsx
+++ b/subneteo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Archivos\OneDrive - Universidad Tecnologica Centroamericana\UNITEC\Cuarto Año\Segundo Periodo\Protocolos de Redes\Proyecto\PackPro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BLANCA\Documents\Documentación Bryan\UNITEC\Protocolos de Redes\proyecto\PackPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{69F32C74-B43B-44EB-B71D-77E035B4A9B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{CB9CDE02-E96C-41BF-9494-1792335D84D6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0DA5D2-BDDB-4D49-9527-336C7D7ADA8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{08310167-B4B9-42AB-B479-4FAF45D00D5E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{08310167-B4B9-42AB-B479-4FAF45D00D5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="205">
   <si>
     <t>192.168.0.0</t>
   </si>
@@ -102,9 +102,6 @@
     <t>PC_RRHH</t>
   </si>
   <si>
-    <t>TI</t>
-  </si>
-  <si>
     <t>PC_VENTAS</t>
   </si>
   <si>
@@ -351,9 +348,6 @@
     <t>192.168.0.2/30</t>
   </si>
   <si>
-    <t>192.168.0.5</t>
-  </si>
-  <si>
     <t>2222:ceca::1/64</t>
   </si>
   <si>
@@ -453,9 +447,6 @@
     <t>192.168.0.25/30</t>
   </si>
   <si>
-    <t>192.168.0.28/30</t>
-  </si>
-  <si>
     <t>192.168.0.41/30</t>
   </si>
   <si>
@@ -562,6 +553,99 @@
   </si>
   <si>
     <t>Giga0/2</t>
+  </si>
+  <si>
+    <t>192.168.0.1/30</t>
+  </si>
+  <si>
+    <t>ISP1</t>
+  </si>
+  <si>
+    <t>Fa1/1</t>
+  </si>
+  <si>
+    <t>Fa1/2</t>
+  </si>
+  <si>
+    <t>ISP2</t>
+  </si>
+  <si>
+    <t>192.168.0.9/30</t>
+  </si>
+  <si>
+    <t>2222:ceca:1::4/127</t>
+  </si>
+  <si>
+    <t>192.168.0.6/30</t>
+  </si>
+  <si>
+    <t>2222:ceca:1::1/127</t>
+  </si>
+  <si>
+    <t>2222:ceca:1::3/127</t>
+  </si>
+  <si>
+    <t>192.168.0.10/30</t>
+  </si>
+  <si>
+    <t>2222:ceca:1::5/127</t>
+  </si>
+  <si>
+    <t>192.168.0.14/30</t>
+  </si>
+  <si>
+    <t>2222:ceca:1::7/127</t>
+  </si>
+  <si>
+    <t>192.168.0.18/30</t>
+  </si>
+  <si>
+    <t>2222:ceca:1::9/64</t>
+  </si>
+  <si>
+    <t>192.168.0.22/30</t>
+  </si>
+  <si>
+    <t>2222:ceca:1::b/64</t>
+  </si>
+  <si>
+    <t>192.168.0.26/30</t>
+  </si>
+  <si>
+    <t>2222:ceca:1::d/64</t>
+  </si>
+  <si>
+    <t>192.168.0.29/30</t>
+  </si>
+  <si>
+    <t>2222:ceca:1::f/64</t>
+  </si>
+  <si>
+    <t>192.168.0.42/30</t>
+  </si>
+  <si>
+    <t>2222:ceca:1::15/64</t>
+  </si>
+  <si>
+    <t>192.168.0.46/30</t>
+  </si>
+  <si>
+    <t>2222:ceca:1::17/64</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>2222:ceca::2/64</t>
+  </si>
+  <si>
+    <t>2222:ceca:0:1::2/64</t>
+  </si>
+  <si>
+    <t>2222:ceca:0:2::2/64</t>
+  </si>
+  <si>
+    <t>192.168.0.30/30</t>
   </si>
 </sst>
 </file>
@@ -715,7 +799,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -735,6 +819,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -747,19 +843,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1078,73 +1168,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7AF1E3C-A4CD-4F7B-AD0C-6328BD9E415A}">
   <dimension ref="B4:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.77734375" customWidth="1"/>
-    <col min="13" max="13" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.77734375" customWidth="1"/>
-    <col min="15" max="15" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.81640625" customWidth="1"/>
+    <col min="15" max="15" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
-      <c r="J4" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
+      <c r="J4" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="17"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>13</v>
@@ -1153,13 +1243,13 @@
         <v>14</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>19</v>
@@ -1168,7 +1258,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1176,10 +1266,10 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>4</v>
@@ -1188,25 +1278,25 @@
         <v>5</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>83</v>
+        <v>51</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>18</v>
@@ -1215,18 +1305,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>200</v>
       </c>
       <c r="C7" s="1">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
@@ -1235,23 +1325,23 @@
         <v>5</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="18"/>
+        <v>51</v>
+      </c>
+      <c r="J7" s="13"/>
       <c r="K7" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>18</v>
@@ -1260,7 +1350,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1268,10 +1358,10 @@
         <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>7</v>
@@ -1280,23 +1370,23 @@
         <v>8</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="18"/>
+        <v>51</v>
+      </c>
+      <c r="J8" s="13"/>
       <c r="K8" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>18</v>
@@ -1305,7 +1395,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
@@ -1313,10 +1403,10 @@
         <v>99</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>3</v>
@@ -1325,23 +1415,23 @@
         <v>17</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="18"/>
+        <v>51</v>
+      </c>
+      <c r="J9" s="13"/>
       <c r="K9" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>18</v>
@@ -1350,18 +1440,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>7</v>
@@ -1370,20 +1460,20 @@
         <v>8</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J10" s="18"/>
+        <v>51</v>
+      </c>
+      <c r="J10" s="13"/>
       <c r="K10" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>105</v>
+        <v>174</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>18</v>
@@ -1395,18 +1485,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>7</v>
@@ -1415,20 +1505,20 @@
         <v>8</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" s="19"/>
+        <v>51</v>
+      </c>
+      <c r="J11" s="14"/>
       <c r="K11" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>18</v>
@@ -1440,18 +1530,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>7</v>
@@ -1460,124 +1550,124 @@
         <v>8</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>84</v>
+        <v>51</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="K12" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="J13" s="13"/>
+      <c r="K13" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C14" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="13"/>
+      <c r="K15" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="J13" s="15"/>
-      <c r="K13" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="L13" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C14" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="M14" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="N14" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="O14" s="9" t="s">
+      <c r="N15" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O15" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>96</v>
-      </c>
       <c r="P15" s="4" t="s">
         <v>18</v>
       </c>
@@ -1585,15 +1675,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C16" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>11</v>
@@ -1602,40 +1692,40 @@
         <v>12</v>
       </c>
       <c r="H16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="13"/>
+      <c r="K16" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="J16" s="15"/>
-      <c r="K16" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>11</v>
@@ -1644,20 +1734,20 @@
         <v>12</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J17" s="15"/>
+        <v>66</v>
+      </c>
+      <c r="J17" s="14"/>
       <c r="K17" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>18</v>
@@ -1669,15 +1759,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C18" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>11</v>
@@ -1686,24 +1776,24 @@
         <v>12</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>85</v>
+        <v>66</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>175</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="O18" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O18" s="4" t="s">
         <v>18</v>
       </c>
       <c r="P18" s="4" t="s">
@@ -1713,15 +1803,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C19" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>11</v>
@@ -1730,22 +1820,22 @@
         <v>12</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J19" s="16"/>
+        <v>66</v>
+      </c>
+      <c r="J19" s="20"/>
       <c r="K19" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="O19" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="O19" s="4" t="s">
         <v>18</v>
       </c>
       <c r="P19" s="4" t="s">
@@ -1755,15 +1845,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C20" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>11</v>
@@ -1772,22 +1862,22 @@
         <v>12</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J20" s="16"/>
+        <v>66</v>
+      </c>
+      <c r="J20" s="20"/>
       <c r="K20" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="O20" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="O20" s="4" t="s">
         <v>18</v>
       </c>
       <c r="P20" s="4" t="s">
@@ -1797,15 +1887,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C21" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>11</v>
@@ -1814,24 +1904,22 @@
         <v>12</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>86</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="J21" s="20"/>
       <c r="K21" s="4" t="s">
-        <v>88</v>
+        <v>176</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="O21" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="O21" s="4" t="s">
         <v>18</v>
       </c>
       <c r="P21" s="4" t="s">
@@ -1841,15 +1929,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C22" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>11</v>
@@ -1858,22 +1946,22 @@
         <v>12</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J22" s="16"/>
+        <v>66</v>
+      </c>
+      <c r="J22" s="21"/>
       <c r="K22" s="4" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="O22" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="O22" s="4" t="s">
         <v>18</v>
       </c>
       <c r="P22" s="4" t="s">
@@ -1883,15 +1971,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C23" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>11</v>
@@ -1900,22 +1988,24 @@
         <v>12</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J23" s="16"/>
+        <v>66</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>178</v>
+      </c>
       <c r="K23" s="4" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="O23" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="O23" s="4" t="s">
         <v>18</v>
       </c>
       <c r="P23" s="4" t="s">
@@ -1925,15 +2015,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C24" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>11</v>
@@ -1942,24 +2032,22 @@
         <v>12</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>87</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="J24" s="11"/>
       <c r="K24" s="4" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="O24" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O24" s="4" t="s">
         <v>18</v>
       </c>
       <c r="P24" s="4" t="s">
@@ -1969,15 +2057,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C25" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>11</v>
@@ -1986,20 +2074,20 @@
         <v>12</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J25" s="16"/>
+        <v>66</v>
+      </c>
+      <c r="J25" s="11"/>
       <c r="K25" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="O25" s="4" t="s">
         <v>18</v>
@@ -2011,15 +2099,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>131</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>133</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>11</v>
@@ -2028,22 +2116,22 @@
         <v>12</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J26" s="16"/>
+        <v>66</v>
+      </c>
+      <c r="J26" s="11"/>
       <c r="K26" s="4" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="O26" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="O26" s="4" t="s">
         <v>18</v>
       </c>
       <c r="P26" s="4" t="s">
@@ -2053,15 +2141,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C27" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>132</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>134</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>11</v>
@@ -2070,169 +2158,159 @@
         <v>12</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>78</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="J27" s="11"/>
       <c r="K27" s="4" t="s">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>104</v>
+        <v>198</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q27" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="J28" s="7" t="s">
-        <v>79</v>
+        <v>199</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="J28" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="L28" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="J29" s="20"/>
+      <c r="K29" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="M28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N28" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q28" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="J29" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="L29" s="2" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P29" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q29" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="J30" s="7" t="s">
-        <v>81</v>
-      </c>
+      <c r="P29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="J30" s="21"/>
       <c r="K30" s="4" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P30" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q30" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="J31" s="7" t="s">
-        <v>82</v>
+      <c r="P30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="J31" s="19" t="s">
+        <v>85</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P31" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q31" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="J32" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="P31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="J32" s="20"/>
       <c r="K32" s="4" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P32" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q32" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17" x14ac:dyDescent="0.3">
-      <c r="J33" s="7" t="s">
-        <v>120</v>
-      </c>
+      <c r="P32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17" x14ac:dyDescent="0.35">
+      <c r="J33" s="21"/>
       <c r="K33" s="4" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>153</v>
@@ -2241,138 +2319,396 @@
         <v>18</v>
       </c>
       <c r="N33" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17" x14ac:dyDescent="0.35">
+      <c r="J34" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17" x14ac:dyDescent="0.35">
+      <c r="J35" s="20"/>
+      <c r="K35" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17" x14ac:dyDescent="0.35">
+      <c r="J36" s="21"/>
+      <c r="K36" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17" x14ac:dyDescent="0.35">
+      <c r="J37" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q37" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17" x14ac:dyDescent="0.35">
+      <c r="J38" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q38" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17" x14ac:dyDescent="0.35">
+      <c r="J39" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q39" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17" x14ac:dyDescent="0.35">
+      <c r="J40" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q40" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17" x14ac:dyDescent="0.35">
+      <c r="J41" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q41" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17" x14ac:dyDescent="0.35">
+      <c r="J42" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N42" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q42" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17" x14ac:dyDescent="0.35">
+      <c r="J43" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N43" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q43" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17" x14ac:dyDescent="0.35">
+      <c r="J44" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q44" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17" x14ac:dyDescent="0.35">
+      <c r="J45" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q45" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17" x14ac:dyDescent="0.35">
+      <c r="J46" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N46" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="O33" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q33" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17" x14ac:dyDescent="0.3">
-      <c r="J34" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="L34" s="2" t="s">
+      <c r="O46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q46" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17" x14ac:dyDescent="0.35">
+      <c r="J47" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P47" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N34" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q34" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="10:17" x14ac:dyDescent="0.3">
-      <c r="J35" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N35" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q35" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="36" spans="10:17" x14ac:dyDescent="0.3">
-      <c r="J36" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N36" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q36" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17" x14ac:dyDescent="0.3">
-      <c r="J37" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N37" s="9" t="s">
+      <c r="Q47" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="O37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q37" s="9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="1048575" spans="10:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1048575" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J1048575" s="6"/>
     </row>
-    <row r="1048576" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="1048576" spans="10:11" x14ac:dyDescent="0.35">
       <c r="K1048576" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="J6:J11"/>
+  <mergeCells count="10">
+    <mergeCell ref="J18:J22"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="C14:H14"/>
+    <mergeCell ref="J23:J27"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="J34:J36"/>
     <mergeCell ref="J4:Q4"/>
+    <mergeCell ref="J6:J11"/>
     <mergeCell ref="J12:J17"/>
-    <mergeCell ref="J18:J20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/subneteo.xlsx
+++ b/subneteo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BLANCA\Documents\Documentación Bryan\UNITEC\Protocolos de Redes\proyecto\PackPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0DA5D2-BDDB-4D49-9527-336C7D7ADA8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C066BD-06EF-4B94-A12D-E3B75A9059DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{08310167-B4B9-42AB-B479-4FAF45D00D5E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="213">
   <si>
     <t>192.168.0.0</t>
   </si>
@@ -561,12 +561,6 @@
     <t>ISP1</t>
   </si>
   <si>
-    <t>Fa1/1</t>
-  </si>
-  <si>
-    <t>Fa1/2</t>
-  </si>
-  <si>
     <t>ISP2</t>
   </si>
   <si>
@@ -646,6 +640,36 @@
   </si>
   <si>
     <t>192.168.0.30/30</t>
+  </si>
+  <si>
+    <t>172.17.0.0/28</t>
+  </si>
+  <si>
+    <t>172.17.0.16/28</t>
+  </si>
+  <si>
+    <t>172.17.0.32/28</t>
+  </si>
+  <si>
+    <t>R1 Giga0/0</t>
+  </si>
+  <si>
+    <t>R1 Giga0/1</t>
+  </si>
+  <si>
+    <t>R2 Giga0/0</t>
+  </si>
+  <si>
+    <t>R2 Giga0/1</t>
+  </si>
+  <si>
+    <t>R2 Giga0/2</t>
+  </si>
+  <si>
+    <t>Contraseña</t>
+  </si>
+  <si>
+    <t>Baner</t>
   </si>
 </sst>
 </file>
@@ -799,7 +823,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -819,16 +843,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -843,15 +864,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1166,10 +1192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7AF1E3C-A4CD-4F7B-AD0C-6328BD9E415A}">
-  <dimension ref="B4:Q1048576"/>
+  <dimension ref="B4:W1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1188,30 +1214,41 @@
     <col min="15" max="15" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B4" s="15" t="s">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
-      <c r="J4" s="15" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
+      <c r="J4" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="17"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="16"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>25</v>
       </c>
@@ -1257,8 +1294,9 @@
       <c r="Q5" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S5" s="6"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1280,7 +1318,7 @@
       <c r="H6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="19" t="s">
         <v>82</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -1304,10 +1342,16 @@
       <c r="Q6" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="V6" t="s">
+        <v>211</v>
+      </c>
+      <c r="W6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C7" s="1">
         <v>20</v>
@@ -1327,7 +1371,7 @@
       <c r="H7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="13"/>
+      <c r="J7" s="20"/>
       <c r="K7" s="2" t="s">
         <v>169</v>
       </c>
@@ -1350,7 +1394,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1372,7 +1416,7 @@
       <c r="H8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="13"/>
+      <c r="J8" s="20"/>
       <c r="K8" s="2" t="s">
         <v>170</v>
       </c>
@@ -1395,7 +1439,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
@@ -1417,7 +1461,7 @@
       <c r="H9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="13"/>
+      <c r="J9" s="20"/>
       <c r="K9" s="2" t="s">
         <v>171</v>
       </c>
@@ -1440,7 +1484,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
         <v>56</v>
       </c>
@@ -1462,7 +1506,7 @@
       <c r="H10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J10" s="13"/>
+      <c r="J10" s="20"/>
       <c r="K10" s="2" t="s">
         <v>172</v>
       </c>
@@ -1485,7 +1529,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>57</v>
       </c>
@@ -1507,7 +1551,7 @@
       <c r="H11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J11" s="14"/>
+      <c r="J11" s="21"/>
       <c r="K11" s="2" t="s">
         <v>173</v>
       </c>
@@ -1530,7 +1574,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
         <v>58</v>
       </c>
@@ -1552,7 +1596,7 @@
       <c r="H12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="19" t="s">
         <v>83</v>
       </c>
       <c r="K12" s="2" t="s">
@@ -1565,7 +1609,7 @@
         <v>88</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O12" s="9" t="s">
         <v>92</v>
@@ -1577,8 +1621,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="J13" s="13"/>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="J13" s="20"/>
       <c r="K13" s="2" t="s">
         <v>169</v>
       </c>
@@ -1589,7 +1633,7 @@
         <v>89</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O13" s="9" t="s">
         <v>93</v>
@@ -1601,16 +1645,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="C14" s="18" t="s">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="C14" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="J14" s="13"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="J14" s="20"/>
       <c r="K14" s="2" t="s">
         <v>170</v>
       </c>
@@ -1621,7 +1665,7 @@
         <v>90</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O14" s="9" t="s">
         <v>94</v>
@@ -1633,7 +1677,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
       <c r="C15" s="5" t="s">
         <v>25</v>
       </c>
@@ -1652,7 +1696,7 @@
       <c r="H15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J15" s="13"/>
+      <c r="J15" s="20"/>
       <c r="K15" s="2" t="s">
         <v>171</v>
       </c>
@@ -1675,7 +1719,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
       <c r="C16" s="7" t="s">
         <v>30</v>
       </c>
@@ -1694,18 +1738,18 @@
       <c r="H16" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J16" s="13"/>
+      <c r="J16" s="20"/>
       <c r="K16" s="2" t="s">
         <v>172</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>18</v>
@@ -1736,7 +1780,7 @@
       <c r="H17" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J17" s="14"/>
+      <c r="J17" s="21"/>
       <c r="K17" s="2" t="s">
         <v>173</v>
       </c>
@@ -1778,11 +1822,11 @@
       <c r="H18" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="11" t="s">
         <v>175</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>87</v>
+        <v>206</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>104</v>
@@ -1791,7 +1835,7 @@
         <v>18</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>18</v>
@@ -1822,18 +1866,18 @@
       <c r="H19" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J19" s="20"/>
+      <c r="J19" s="12"/>
       <c r="K19" s="4" t="s">
-        <v>116</v>
+        <v>207</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O19" s="4" t="s">
         <v>18</v>
@@ -1864,18 +1908,18 @@
       <c r="H20" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J20" s="20"/>
+      <c r="J20" s="12"/>
       <c r="K20" s="4" t="s">
-        <v>117</v>
+        <v>208</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>18</v>
@@ -1906,18 +1950,18 @@
       <c r="H21" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J21" s="20"/>
+      <c r="J21" s="12"/>
       <c r="K21" s="4" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O21" s="4" t="s">
         <v>18</v>
@@ -1948,18 +1992,18 @@
       <c r="H22" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J22" s="21"/>
+      <c r="J22" s="13"/>
       <c r="K22" s="4" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O22" s="4" t="s">
         <v>18</v>
@@ -1990,20 +2034,20 @@
       <c r="H23" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J23" s="11" t="s">
-        <v>178</v>
+      <c r="J23" s="18" t="s">
+        <v>176</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>87</v>
+        <v>206</v>
       </c>
       <c r="L23" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N23" s="9" t="s">
         <v>181</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N23" s="9" t="s">
-        <v>183</v>
       </c>
       <c r="O23" s="4" t="s">
         <v>18</v>
@@ -2034,18 +2078,18 @@
       <c r="H24" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J24" s="11"/>
+      <c r="J24" s="18"/>
       <c r="K24" s="4" t="s">
-        <v>116</v>
+        <v>207</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O24" s="4" t="s">
         <v>18</v>
@@ -2076,18 +2120,18 @@
       <c r="H25" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J25" s="11"/>
+      <c r="J25" s="18"/>
       <c r="K25" s="4" t="s">
-        <v>117</v>
+        <v>208</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O25" s="4" t="s">
         <v>18</v>
@@ -2118,18 +2162,18 @@
       <c r="H26" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J26" s="11"/>
+      <c r="J26" s="18"/>
       <c r="K26" s="4" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O26" s="4" t="s">
         <v>18</v>
@@ -2160,18 +2204,18 @@
       <c r="H27" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J27" s="11"/>
+      <c r="J27" s="18"/>
       <c r="K27" s="4" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O27" s="4" t="s">
         <v>18</v>
@@ -2184,7 +2228,7 @@
       </c>
     </row>
     <row r="28" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="J28" s="19" t="s">
+      <c r="J28" s="11" t="s">
         <v>84</v>
       </c>
       <c r="K28" s="4" t="s">
@@ -2210,7 +2254,7 @@
       </c>
     </row>
     <row r="29" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="J29" s="20"/>
+      <c r="J29" s="12"/>
       <c r="K29" s="4" t="s">
         <v>116</v>
       </c>
@@ -2234,7 +2278,7 @@
       </c>
     </row>
     <row r="30" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="J30" s="21"/>
+      <c r="J30" s="13"/>
       <c r="K30" s="4" t="s">
         <v>117</v>
       </c>
@@ -2258,7 +2302,7 @@
       </c>
     </row>
     <row r="31" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="J31" s="19" t="s">
+      <c r="J31" s="11" t="s">
         <v>85</v>
       </c>
       <c r="K31" s="4" t="s">
@@ -2284,12 +2328,12 @@
       </c>
     </row>
     <row r="32" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="J32" s="20"/>
+      <c r="J32" s="12"/>
       <c r="K32" s="4" t="s">
         <v>116</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>18</v>
@@ -2308,7 +2352,7 @@
       </c>
     </row>
     <row r="33" spans="10:17" x14ac:dyDescent="0.35">
-      <c r="J33" s="21"/>
+      <c r="J33" s="13"/>
       <c r="K33" s="4" t="s">
         <v>117</v>
       </c>
@@ -2332,7 +2376,7 @@
       </c>
     </row>
     <row r="34" spans="10:17" x14ac:dyDescent="0.35">
-      <c r="J34" s="19" t="s">
+      <c r="J34" s="11" t="s">
         <v>86</v>
       </c>
       <c r="K34" s="4" t="s">
@@ -2358,7 +2402,7 @@
       </c>
     </row>
     <row r="35" spans="10:17" x14ac:dyDescent="0.35">
-      <c r="J35" s="20"/>
+      <c r="J35" s="12"/>
       <c r="K35" s="4" t="s">
         <v>116</v>
       </c>
@@ -2382,7 +2426,7 @@
       </c>
     </row>
     <row r="36" spans="10:17" x14ac:dyDescent="0.35">
-      <c r="J36" s="21"/>
+      <c r="J36" s="13"/>
       <c r="K36" s="4" t="s">
         <v>117</v>
       </c>
@@ -2412,13 +2456,13 @@
       <c r="K37" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="L37" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="M37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N37" s="9" t="s">
+      <c r="M37" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="N37" s="23" t="s">
         <v>108</v>
       </c>
       <c r="O37" s="2" t="s">
@@ -2438,13 +2482,13 @@
       <c r="K38" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="L38" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N38" s="9" t="s">
+      <c r="M38" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="N38" s="23" t="s">
         <v>122</v>
       </c>
       <c r="O38" s="2" t="s">
@@ -2464,13 +2508,13 @@
       <c r="K39" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="L39" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="M39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N39" s="9" t="s">
+      <c r="M39" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="N39" s="23" t="s">
         <v>123</v>
       </c>
       <c r="O39" s="2" t="s">
@@ -2490,13 +2534,13 @@
       <c r="K40" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="L40" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="M40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N40" s="9" t="s">
+      <c r="M40" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="N40" s="23" t="s">
         <v>124</v>
       </c>
       <c r="O40" s="2" t="s">
@@ -2516,13 +2560,13 @@
       <c r="K41" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L41" s="2" t="s">
+      <c r="L41" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="M41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N41" s="9" t="s">
+      <c r="M41" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="N41" s="23" t="s">
         <v>125</v>
       </c>
       <c r="O41" s="2" t="s">
@@ -2542,13 +2586,13 @@
       <c r="K42" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="L42" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="M42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N42" s="9" t="s">
+      <c r="M42" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="N42" s="23" t="s">
         <v>158</v>
       </c>
       <c r="O42" s="2" t="s">
@@ -2691,6 +2735,86 @@
         <v>166</v>
       </c>
     </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C51" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C52" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C53" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C54" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="1048575" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J1048575" s="6"/>
     </row>
@@ -2699,16 +2823,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="J4:Q4"/>
+    <mergeCell ref="J6:J11"/>
+    <mergeCell ref="J12:J17"/>
     <mergeCell ref="J18:J22"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="J23:J27"/>
     <mergeCell ref="J28:J30"/>
-    <mergeCell ref="J31:J33"/>
-    <mergeCell ref="J34:J36"/>
-    <mergeCell ref="J4:Q4"/>
-    <mergeCell ref="J6:J11"/>
-    <mergeCell ref="J12:J17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
